--- a/Location Details/Massachusetts Ave, Indianapolis, IN 46204_expos.xlsx
+++ b/Location Details/Massachusetts Ave, Indianapolis, IN 46204_expos.xlsx
@@ -478,7 +478,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -583,7 +583,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -625,7 +625,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>4.6</v>
       </c>
       <c r="E12" t="n">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="13">
@@ -835,7 +835,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -844,19 +844,19 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Fern</t>
+          <t>Fanfare Tickets</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="E20" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -865,19 +865,19 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Floor &amp; Decor</t>
+          <t>Fern</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="E21" t="n">
-        <v>281</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -886,19 +886,19 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Food Specialties Inc</t>
+          <t>Floor &amp; Decor</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -907,14 +907,14 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Free Stage</t>
+          <t>Food Specialties Inc</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -940,7 +940,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
         <v>4.5</v>
       </c>
       <c r="E29" t="n">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="30">
@@ -1108,7 +1108,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>4.4</v>
       </c>
       <c r="E49" t="n">
-        <v>1181</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="50">
@@ -1481,7 +1481,7 @@
         <v>4.3</v>
       </c>
       <c r="E50" t="n">
-        <v>1756</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="51">
@@ -1528,7 +1528,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
